--- a/downloaded_files/GENS207_Lecture-35101.xlsx
+++ b/downloaded_files/GENS207_Lecture-35101.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -202,6 +202,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Mohamed Kamal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كريم عصام محمد عادل محمد الزيات</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KARIM ELZIAT</x:t>
   </x:si>
   <x:si>
     <x:t>1230139</x:t>
@@ -398,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1397,7 +1406,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.9465743056</x:v>
+        <x:v>45922.3486832986</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1429,7 +1438,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4146040509</x:v>
+        <x:v>45914.9465743056</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1461,7 +1470,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4150313657</x:v>
+        <x:v>45906.4146040509</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1502,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.414450081</x:v>
+        <x:v>45906.4150313657</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1534,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4228745023</x:v>
+        <x:v>45906.414450081</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1566,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45907.4228745023</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1589,7 +1598,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4315474884</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1621,7 +1630,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4719599884</x:v>
+        <x:v>45907.4315474884</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1653,7 +1662,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6648454861</x:v>
+        <x:v>45907.4719599884</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1670,6 +1679,38 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45907.6648454861</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS207_Lecture-35101.xlsx
+++ b/downloaded_files/GENS207_Lecture-35101.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -78,15 +78,6 @@
     <x:t>Bassel ahmed hammad el shahat</x:t>
   </x:si>
   <x:si>
-    <x:t>1240038</x:t>
-  </x:si>
-  <x:si>
-    <x:t>بلال حمدى احمد حسين محمد احمد أبو طالب</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Belal Hamdy Ahmad</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230172</x:t>
   </x:si>
   <x:si>
@@ -177,13 +168,13 @@
     <x:t>Ali Mohamed Hamdy Ali Desouky</x:t>
   </x:si>
   <x:si>
-    <x:t>1220308</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على محمد ناجى محمود حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali mohamed nagy mahmoud</x:t>
+    <x:t>1210106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر احمد محمد رفعت السيد حريشه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar ahmed mohamed refaat el sayed</x:t>
   </x:si>
   <x:si>
     <x:t>1210107</x:t>
@@ -204,6 +195,15 @@
     <x:t>Omar Mohamed Kamal</x:t>
   </x:si>
   <x:si>
+    <x:t>1220310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمرو ناصر عبدالرحمن عبدالتواب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amr Nasser Abd Elrahman</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240180</x:t>
   </x:si>
   <x:si>
@@ -238,6 +238,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ahmed Mohamed Kamel Elewa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210396</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد بسطاوي احمد بسطاوى احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammed bastawi ahmed bastawi Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1210309</x:t>
@@ -407,7 +416,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +716,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -715,7 +724,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="34.020625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="34.830625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="54.720625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -958,7 +967,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45914.9468236458</x:v>
+        <x:v>45907.6649270486</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -990,7 +999,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6649270486</x:v>
+        <x:v>45914.9464060185</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1022,7 +1031,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.9464060185</x:v>
+        <x:v>45906.4147694444</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1054,7 +1063,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4147694444</x:v>
+        <x:v>45906.6911056713</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1086,7 +1095,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6911056713</x:v>
+        <x:v>45914.9457550579</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1118,7 +1127,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.9457550579</x:v>
+        <x:v>45906.666074919</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1150,7 +1159,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.666074919</x:v>
+        <x:v>45907.4156379282</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1182,7 +1191,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4156379282</x:v>
+        <x:v>45907.414625544</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1214,7 +1223,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.414625544</x:v>
+        <x:v>45907.4149399653</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1246,7 +1255,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4149399653</x:v>
+        <x:v>45906.4148569792</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1278,7 +1287,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4148569792</x:v>
+        <x:v>45927.4242024306</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1310,7 +1319,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4484222222</x:v>
+        <x:v>45906.6659766204</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1342,7 +1351,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6659766204</x:v>
+        <x:v>45907.4238189815</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1374,7 +1383,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4238189815</x:v>
+        <x:v>45927.4167040162</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1534,7 +1543,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.414450081</x:v>
+        <x:v>45927.4145408912</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1566,7 +1575,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4228745023</x:v>
+        <x:v>45906.414450081</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1598,7 +1607,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45907.4228745023</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1630,7 +1639,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4315474884</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1662,7 +1671,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4719599884</x:v>
+        <x:v>45907.4315474884</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1694,7 +1703,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6648454861</x:v>
+        <x:v>45907.4719599884</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1711,6 +1720,38 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45907.6648454861</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS207_Lecture-35101.xlsx
+++ b/downloaded_files/GENS207_Lecture-35101.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,6 +58,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Mohamed Sayed Abdelbadie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد عزت عطيه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohamed Ezzat Attia</x:t>
   </x:si>
   <x:si>
     <x:t>2240005</x:t>
@@ -416,7 +425,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -716,7 +725,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -903,7 +912,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4174863773</x:v>
+        <x:v>45928.1221575579</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -935,7 +944,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.666002662</x:v>
+        <x:v>45907.4174863773</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -967,7 +976,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6649270486</x:v>
+        <x:v>45906.666002662</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -999,7 +1008,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45914.9464060185</x:v>
+        <x:v>45907.6649270486</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1031,7 +1040,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4147694444</x:v>
+        <x:v>45914.9464060185</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1063,7 +1072,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6911056713</x:v>
+        <x:v>45906.4147694444</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1095,7 +1104,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.9457550579</x:v>
+        <x:v>45906.6911056713</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1127,7 +1136,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.666074919</x:v>
+        <x:v>45914.9457550579</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1159,7 +1168,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4156379282</x:v>
+        <x:v>45906.666074919</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1191,7 +1200,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.414625544</x:v>
+        <x:v>45907.4156379282</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1223,7 +1232,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4149399653</x:v>
+        <x:v>45907.414625544</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1255,7 +1264,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4148569792</x:v>
+        <x:v>45907.4149399653</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1287,7 +1296,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.4242024306</x:v>
+        <x:v>45906.4148569792</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1319,7 +1328,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6659766204</x:v>
+        <x:v>45927.4242024306</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1351,7 +1360,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4238189815</x:v>
+        <x:v>45906.6659766204</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1383,7 +1392,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.4167040162</x:v>
+        <x:v>45907.4238189815</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1415,7 +1424,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45922.3486832986</x:v>
+        <x:v>45927.4167040162</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1447,7 +1456,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.9465743056</x:v>
+        <x:v>45922.3486832986</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1479,7 +1488,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4146040509</x:v>
+        <x:v>45914.9465743056</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1511,7 +1520,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4150313657</x:v>
+        <x:v>45906.4146040509</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1543,7 +1552,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.4145408912</x:v>
+        <x:v>45906.4150313657</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1575,7 +1584,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.414450081</x:v>
+        <x:v>45927.4145408912</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1607,7 +1616,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4228745023</x:v>
+        <x:v>45906.414450081</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1639,7 +1648,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45907.4228745023</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1671,7 +1680,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4315474884</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1703,7 +1712,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4719599884</x:v>
+        <x:v>45907.4315474884</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1735,7 +1744,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6648454861</x:v>
+        <x:v>45907.4719599884</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1752,6 +1761,38 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45907.6648454861</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS207_Lecture-35101.xlsx
+++ b/downloaded_files/GENS207_Lecture-35101.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -204,6 +204,15 @@
     <x:t>Omar Mohamed Kamal</x:t>
   </x:si>
   <x:si>
+    <x:t>1210370</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر نبيل شحاتة محمد حبيب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Nabil Shehata Mohamed Habib</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220310</x:t>
   </x:si>
   <x:si>
@@ -256,6 +265,15 @@
   </x:si>
   <x:si>
     <x:t>Mohammed bastawi ahmed bastawi Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240149</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم أحمد محمود سامى بشر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mariam ahmed mahmoud samy bishr</x:t>
   </x:si>
   <x:si>
     <x:t>1210309</x:t>
@@ -425,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -725,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1424,7 +1442,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.4167040162</x:v>
+        <x:v>45928.4288430556</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1456,7 +1474,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45922.3486832986</x:v>
+        <x:v>45927.4167040162</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1488,7 +1506,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.9465743056</x:v>
+        <x:v>45922.3486832986</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1520,7 +1538,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4146040509</x:v>
+        <x:v>45914.9465743056</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1552,7 +1570,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4150313657</x:v>
+        <x:v>45906.4146040509</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1584,7 +1602,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45927.4145408912</x:v>
+        <x:v>45906.4150313657</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1616,7 +1634,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.414450081</x:v>
+        <x:v>45927.4145408912</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1648,7 +1666,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4228745023</x:v>
+        <x:v>45928.4200537384</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1680,7 +1698,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45906.414450081</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1712,7 +1730,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4315474884</x:v>
+        <x:v>45907.4228745023</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1744,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4719599884</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1776,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6648454861</x:v>
+        <x:v>45907.4315474884</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1793,6 +1811,70 @@
       <x:c r="R32" s="2" t="s"/>
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45907.4719599884</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45907.6648454861</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS207_Lecture-35101.xlsx
+++ b/downloaded_files/GENS207_Lecture-35101.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -229,6 +229,15 @@
   </x:si>
   <x:si>
     <x:t>KARIM ELZIAT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200429</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كريم عمرو محمد فهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Karim Amr Mohamed Fahim</x:t>
   </x:si>
   <x:si>
     <x:t>1230139</x:t>
@@ -443,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1538,7 +1547,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.9465743056</x:v>
+        <x:v>45928.9069018171</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1570,7 +1579,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4146040509</x:v>
+        <x:v>45914.9465743056</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1602,7 +1611,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4150313657</x:v>
+        <x:v>45906.4146040509</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1634,7 +1643,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.4145408912</x:v>
+        <x:v>45906.4150313657</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1666,7 +1675,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45928.4200537384</x:v>
+        <x:v>45927.4145408912</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1698,7 +1707,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.414450081</x:v>
+        <x:v>45928.4200537384</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1730,7 +1739,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4228745023</x:v>
+        <x:v>45906.414450081</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1762,7 +1771,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45907.4228745023</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1794,7 +1803,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4315474884</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1826,7 +1835,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4719599884</x:v>
+        <x:v>45907.4315474884</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1858,7 +1867,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6648454861</x:v>
+        <x:v>45907.4719599884</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1876,6 +1885,38 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45907.6648454861</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1888,6 +1929,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Foreign Language (GENS207) Location : [20110]20110-45-الجيزة الرئيسي Time : Tuesday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/GENS207_Lecture-35101.xlsx
+++ b/downloaded_files/GENS207_Lecture-35101.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -157,15 +157,6 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Sameh Ahmed Salem</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230204</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالله سمير عبد الموجود عسكر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdallah Samir Abdelmawgoud Askar</x:t>
   </x:si>
   <x:si>
     <x:t>1210254</x:t>
@@ -452,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1291,7 +1282,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4149399653</x:v>
+        <x:v>45906.4148569792</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1323,7 +1314,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4148569792</x:v>
+        <x:v>45927.4242024306</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1355,7 +1346,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.4242024306</x:v>
+        <x:v>45906.6659766204</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1387,7 +1378,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6659766204</x:v>
+        <x:v>45907.4238189815</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1419,7 +1410,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4238189815</x:v>
+        <x:v>45928.4288430556</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1451,7 +1442,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45928.4288430556</x:v>
+        <x:v>45927.4167040162</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1483,7 +1474,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.4167040162</x:v>
+        <x:v>45922.3486832986</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1515,7 +1506,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45922.3486832986</x:v>
+        <x:v>45928.9069018171</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1547,7 +1538,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45928.9069018171</x:v>
+        <x:v>45914.9465743056</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1579,7 +1570,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.9465743056</x:v>
+        <x:v>45906.4146040509</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1611,7 +1602,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4146040509</x:v>
+        <x:v>45906.4150313657</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1643,7 +1634,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4150313657</x:v>
+        <x:v>45927.4145408912</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1675,7 +1666,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45927.4145408912</x:v>
+        <x:v>45928.4200537384</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1707,7 +1698,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45928.4200537384</x:v>
+        <x:v>45906.414450081</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1739,7 +1730,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.414450081</x:v>
+        <x:v>45907.4228745023</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1771,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4228745023</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1803,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45907.4315474884</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1835,7 +1826,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4315474884</x:v>
+        <x:v>45907.4719599884</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1867,7 +1858,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4719599884</x:v>
+        <x:v>45907.6648454861</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1885,38 +1876,6 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45907.6648454861</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1929,9 +1888,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Foreign Language (GENS207) Location : [20110]20110-45-الجيزة الرئيسي Time : Tuesday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/GENS207_Lecture-35101.xlsx
+++ b/downloaded_files/GENS207_Lecture-35101.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -319,6 +319,15 @@
   </x:si>
   <x:si>
     <x:t>Yehia Tarek ibrahim ahmed nasreldin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220090</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف عصام عبدالمنعم احمد منسي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>youssef essam abdel monaem ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1230141</x:t>
@@ -443,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1858,7 +1867,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6648454861</x:v>
+        <x:v>45914.933544213</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1876,6 +1885,38 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45907.6648454861</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1888,6 +1929,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Foreign Language (GENS207) Location : [20110]20110-45-الجيزة الرئيسي Time : Tuesday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/GENS207_Lecture-35101.xlsx
+++ b/downloaded_files/GENS207_Lecture-35101.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -328,6 +328,15 @@
   </x:si>
   <x:si>
     <x:t>youssef essam abdel monaem ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1180217</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد فاروق محمد فوزى عريبه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yousef Mohamed Farouk Mohamed Fawzy Oraiba</x:t>
   </x:si>
   <x:si>
     <x:t>1230141</x:t>
@@ -452,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1899,7 +1908,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6648454861</x:v>
+        <x:v>45937.4443107292</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1916,6 +1925,38 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45907.6648454861</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
